--- a/Introduction-to-Data/L3-and-L4:Spreadsheets-1&2/Misc/extract-text.xlsx
+++ b/Introduction-to-Data/L3-and-L4:Spreadsheets-1&2/Misc/extract-text.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f586c6deb7520287/AIDA/L2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marksoro/git-projects/Business-Analytics/Introduction-to-Data/L3-and-L4:Spreadsheets-1&amp;2/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9C8DD5-CC35-654F-89D9-4A7FB1A2227F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="3300" yWindow="2120" windowWidth="20960" windowHeight="18040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise-Extract Text" sheetId="2" r:id="rId1"/>
-    <sheet name="Example-First Word" sheetId="3" r:id="rId2"/>
+    <sheet name="Text Modify" sheetId="4" r:id="rId2"/>
+    <sheet name="Example-First Word" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exercise-Extract Text'!$A$1:$A$10</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Sentence</t>
   </si>
@@ -125,12 +127,18 @@
   <si>
     <t>If data get changed, delta logs will be written to the disk as well, so that in case of a power failure or another crash the valid state of data can be recreated from the log entries.</t>
   </si>
+  <si>
+    <t xml:space="preserve">"It is a capital mistake to theorize before one has data"  </t>
+  </si>
+  <si>
+    <t>- Sherlock Holmes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +195,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F2B3D"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -290,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -317,6 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -597,20 +612,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="65.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="65.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.375" style="1"/>
-    <col min="2" max="7" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="65.33203125" style="1"/>
+    <col min="2" max="7" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="88" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -633,111 +648,273 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="9">
+        <f>FIND("data",A2)</f>
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <f>(FIND(" ",A2, B2))+1</f>
+        <v>31</v>
+      </c>
+      <c r="D2" s="4">
+        <f>FIND(" ",A2, C2)</f>
+        <v>35</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2-C2</f>
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>MID(A2,C2,E2)</f>
+        <v>this</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>MID(A2,FIND(" ",A2,FIND("data",A2))+1,FIND(" ",A2,(FIND(" ",A2,FIND("data",A2))+1))-(FIND(" ",A2,FIND("data",A2))+1))</f>
+        <v>this</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <f t="shared" ref="B3:B10" si="0">FIND("data",A3)</f>
+        <v>25</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C9" si="1">(FIND(" ",A3, B3))+1</f>
+        <v>30</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D10" si="2">FIND(" ",A3, C3)</f>
+        <v>37</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E10" si="3">D3-C3</f>
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F10" si="4">MID(A3,C3,E3)</f>
+        <v>student</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G10" si="5">MID(A3, C3,D3-C3)</f>
+        <v>student</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>shows</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>shows</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>that</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>that</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>study</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>study</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>and</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>and</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>practice</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>practice</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="75.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <f>FIND(" ",A9, C9)</f>
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>get</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>get</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="9">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="C10" s="4">
+        <f>(FIND(" ",A10, B10))+1</f>
+        <v>165</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>results</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>results</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
@@ -767,16 +944,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B123ACF5-8B57-1541-8F86-0B27B7FE90CC}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="str">
+        <f>UPPER(A1)</f>
+        <v xml:space="preserve">"IT IS A CAPITAL MISTAKE TO THEORIZE BEFORE ONE HAS DATA"  </v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="str">
+        <f>UPPER(A2)</f>
+        <v>- SHERLOCK HOLMES</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="str">
+        <f>PROPER(A1)</f>
+        <v xml:space="preserve">"It Is A Capital Mistake To Theorize Before One Has Data"  </v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="str">
+        <f>LOWER(A1)</f>
+        <v xml:space="preserve">"it is a capital mistake to theorize before one has data"  </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="57.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="57.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -790,7 +1016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
@@ -807,7 +1033,7 @@
         <v xml:space="preserve">hello </v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -824,7 +1050,7 @@
         <v xml:space="preserve">the </v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
@@ -841,7 +1067,7 @@
         <v xml:space="preserve">show </v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>

--- a/Introduction-to-Data/L3-and-L4:Spreadsheets-1&2/Misc/extract-text.xlsx
+++ b/Introduction-to-Data/L3-and-L4:Spreadsheets-1&2/Misc/extract-text.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marksoro/git-projects/Business-Analytics/Introduction-to-Data/L3-and-L4:Spreadsheets-1&amp;2/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9C8DD5-CC35-654F-89D9-4A7FB1A2227F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C99216-1FD9-4F48-B9EF-918E379F54F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2120" windowWidth="20960" windowHeight="18040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Sentence</t>
   </si>
@@ -64,6 +73,7 @@
         <sz val="12"/>
         <color rgb="FF6A6A6A"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>data practice</t>
     </r>
@@ -72,6 +82,7 @@
         <sz val="12"/>
         <color rgb="FF545454"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> we investigate the areas that experts predict will be the most fruitful. </t>
     </r>
@@ -132,6 +143,15 @@
   </si>
   <si>
     <t>- Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>=UPPER(A1)</t>
+  </si>
+  <si>
+    <t>=PROPER(A1)</t>
+  </si>
+  <si>
+    <t>=LOWER(A1)</t>
   </si>
 </sst>
 </file>
@@ -150,11 +170,13 @@
       <sz val="12"/>
       <color rgb="FF545454"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF6A6A6A"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -215,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -299,12 +321,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -332,6 +369,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -945,16 +983,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B123ACF5-8B57-1541-8F86-0B27B7FE90CC}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="72.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,7 +1004,7 @@
         <v xml:space="preserve">"IT IS A CAPITAL MISTAKE TO THEORIZE BEFORE ONE HAS DATA"  </v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>27</v>
       </c>
@@ -975,16 +1013,32 @@
         <v>- SHERLOCK HOLMES</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="str">
+    <row r="3" spans="1:2" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
         <f>PROPER(A1)</f>
         <v xml:space="preserve">"It Is A Capital Mistake To Theorize Before One Has Data"  </v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="str">
+    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
         <f>LOWER(A1)</f>
         <v xml:space="preserve">"it is a capital mistake to theorize before one has data"  </v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
